--- a/StreamlitAppFinal2/databases/Compare.xlsx
+++ b/StreamlitAppFinal2/databases/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adiyabiyekenova/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA21192-100F-8946-B1E8-9928C94A2DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9662FA9-D1BA-7E4E-9F92-A6BFE84629AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17300" xr2:uid="{E11130E0-75B7-464E-96B4-35B3DD417D68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Company</t>
   </si>
@@ -50,32 +50,194 @@
     <t>NVDA</t>
   </si>
   <si>
-    <t>marketCap</t>
-  </si>
-  <si>
-    <t>trailingPE</t>
-  </si>
-  <si>
-    <t>divYield</t>
-  </si>
-  <si>
-    <t>31.02x</t>
-  </si>
-  <si>
-    <t>2964910.82 </t>
-  </si>
-  <si>
-    <t>33.49x</t>
-  </si>
-  <si>
-    <t>38.62x</t>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Apple Inc.</t>
+  </si>
+  <si>
+    <t>$3.28T</t>
+  </si>
+  <si>
+    <t>Microsoft Corp.</t>
+  </si>
+  <si>
+    <t>$2.79T</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc.</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>$1.95T</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>$1.88T</t>
+  </si>
+  <si>
+    <t>Meta Platforms Inc.</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>$1.46T</t>
+  </si>
+  <si>
+    <t>Tesla Inc.</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>$903B</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway Inc.</t>
+  </si>
+  <si>
+    <t>BRK.A</t>
+  </si>
+  <si>
+    <t>$1.2T</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>$404B</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co.</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>$707B</t>
+  </si>
+  <si>
+    <t>Visa Inc.</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>$730B</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Co.</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>$375B</t>
+  </si>
+  <si>
+    <t>NVIDIA Corp.</t>
+  </si>
+  <si>
+    <t>$1.1T</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Inc.</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>$365B</t>
+  </si>
+  <si>
+    <t>Home Depot Inc.</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Pfizer Inc.</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>$125B</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co.</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>$310B</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc.</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>$225B</t>
+  </si>
+  <si>
+    <t>Intel Corp.</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>$85B</t>
+  </si>
+  <si>
+    <t>Cisco Systems Inc.</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>$240B</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp.</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>$420B</t>
+  </si>
+  <si>
+    <t>MarketCap</t>
+  </si>
+  <si>
+    <t>DivYield</t>
+  </si>
+  <si>
+    <t>TrailingPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,15 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,19 +271,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,77 +612,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E71A63-BA8E-384F-AEE4-8F580612147A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>33.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>3220595.58</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>2768963.2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E21">
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="javascript:click();" xr:uid="{302724CE-1F05-1F42-9B8C-F3D1C6D57BBC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StreamlitAppFinal2/databases/Compare.xlsx
+++ b/StreamlitAppFinal2/databases/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adiyabiyekenova/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9662FA9-D1BA-7E4E-9F92-A6BFE84629AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25715450-69C8-4043-9ACA-77FD3ABC12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17300" xr2:uid="{E11130E0-75B7-464E-96B4-35B3DD417D68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Company</t>
   </si>
@@ -50,24 +50,12 @@
     <t>NVDA</t>
   </si>
   <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Apple Inc.</t>
-  </si>
-  <si>
     <t>$3.28T</t>
   </si>
   <si>
-    <t>Microsoft Corp.</t>
-  </si>
-  <si>
     <t>$2.79T</t>
   </si>
   <si>
-    <t>Amazon.com Inc.</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
@@ -77,160 +65,109 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Alphabet Inc.</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
     <t>$1.88T</t>
   </si>
   <si>
-    <t>Meta Platforms Inc.</t>
-  </si>
-  <si>
     <t>META</t>
   </si>
   <si>
     <t>$1.46T</t>
   </si>
   <si>
-    <t>Tesla Inc.</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
     <t>$903B</t>
   </si>
   <si>
-    <t>Berkshire Hathaway Inc.</t>
-  </si>
-  <si>
     <t>BRK.A</t>
   </si>
   <si>
     <t>$1.2T</t>
   </si>
   <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
     <t>JNJ</t>
   </si>
   <si>
     <t>$404B</t>
   </si>
   <si>
-    <t>JPMorgan Chase &amp; Co.</t>
-  </si>
-  <si>
     <t>JPM</t>
   </si>
   <si>
     <t>$707B</t>
   </si>
   <si>
-    <t>Visa Inc.</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>$730B</t>
   </si>
   <si>
-    <t>Procter &amp; Gamble Co.</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>$375B</t>
   </si>
   <si>
-    <t>NVIDIA Corp.</t>
-  </si>
-  <si>
     <t>$1.1T</t>
   </si>
   <si>
-    <t>UnitedHealth Group Inc.</t>
-  </si>
-  <si>
     <t>UNH</t>
   </si>
   <si>
     <t>$365B</t>
   </si>
   <si>
-    <t>Home Depot Inc.</t>
-  </si>
-  <si>
     <t>HD</t>
   </si>
   <si>
-    <t>Pfizer Inc.</t>
-  </si>
-  <si>
     <t>PFE</t>
   </si>
   <si>
     <t>$125B</t>
   </si>
   <si>
-    <t>Coca-Cola Co.</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
     <t>$310B</t>
   </si>
   <si>
-    <t>PepsiCo Inc.</t>
-  </si>
-  <si>
     <t>PEP</t>
   </si>
   <si>
     <t>$225B</t>
   </si>
   <si>
-    <t>Intel Corp.</t>
-  </si>
-  <si>
     <t>INTC</t>
   </si>
   <si>
     <t>$85B</t>
   </si>
   <si>
-    <t>Cisco Systems Inc.</t>
-  </si>
-  <si>
     <t>CSCO</t>
   </si>
   <si>
     <t>$240B</t>
   </si>
   <si>
-    <t>Exxon Mobil Corp.</t>
-  </si>
-  <si>
     <t>XOM</t>
   </si>
   <si>
     <t>$420B</t>
   </si>
   <si>
-    <t>MarketCap</t>
-  </si>
-  <si>
-    <t>DivYield</t>
-  </si>
-  <si>
-    <t>TrailingPE</t>
+    <t>marketCap</t>
+  </si>
+  <si>
+    <t>divYield</t>
+  </si>
+  <si>
+    <t>trailingPE</t>
   </si>
 </sst>
 </file>
@@ -612,369 +549,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E71A63-BA8E-384F-AEE4-8F580612147A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>33.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E2">
-        <v>33.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E3">
-        <v>28.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D19">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>16.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>21.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E9">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E10">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E11">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E18">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>11.5</v>
       </c>
     </row>
